--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_20_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_20_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32947.05883093727</v>
+        <v>6556464.70735652</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32947.05883093727</v>
+        <v>6556464.70735652</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9917.195812097645</v>
+        <v>596804.7795193502</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9917.195812097645</v>
+        <v>596804.7795193502</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1036749825.305683</v>
+        <v>43195668.37805542</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9979.780452021661</v>
+        <v>1103346.275198901</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18430.82368800448</v>
+        <v>1953425.777423402</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26881.86692398728</v>
+        <v>2803505.279647904</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35774.98320506597</v>
+        <v>3625302.949780363</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44668.09948614464</v>
+        <v>4447100.619912821</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>53231.41133750069</v>
+        <v>5297216.087125778</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>61794.5424602715</v>
+        <v>6147295.589350276</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>70357.67358304144</v>
+        <v>6997375.091574774</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>79080.59073961958</v>
+        <v>7816322.011396154</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>87839.32498841931</v>
+        <v>8642396.532569626</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>96438.27320341169</v>
+        <v>9499603.636146223</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>105001.4043261825</v>
+        <v>10349683.13837073</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>113564.5354489533</v>
+        <v>11199762.64059524</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>122457.4710014468</v>
+        <v>12021524.34573924</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>131350.5872825255</v>
+        <v>12843322.01587171</v>
       </c>
     </row>
   </sheetData>
